--- a/src/test/resources/DM.xlsx
+++ b/src/test/resources/DM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DM_New\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbatan\Desktop\ABC\Domo_E2E\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E587224-4B04-4D40-99B0-DF26B963E892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B04A434-2967-4B11-B14E-7E599E53ED29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +384,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1802</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
